--- a/data/sampleData.xlsx
+++ b/data/sampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Google Drev\AU\Aktuelle\PiB\Project_in_Bioinformatics_E21\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B3BE2-2C67-43DE-8284-0BB0499A85A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB036B4F-6B20-449E-979A-F7AE89ED58BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4688,9 +4688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F365" sqref="F365"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F358" sqref="F358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -39896,7 +39896,7 @@
         <v>1211</v>
       </c>
       <c r="E514" s="9" t="str">
-        <f t="shared" ref="E514:E577" si="8">B514&amp;"."&amp;C514&amp;"."&amp;D514</f>
+        <f t="shared" ref="E514:E524" si="8">B514&amp;"."&amp;C514&amp;"."&amp;D514</f>
         <v>JS.feb.74</v>
       </c>
       <c r="F514" s="11"/>
